--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1911312.134113981</v>
+        <v>-1913895.16618371</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>12.27673055432618</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>408.6659743001526</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498669</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.4856996582643</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>119.1488185988156</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +911,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>79.13824467254828</v>
+        <v>218.8748435506837</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.23776695828008</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>115.8769204651471</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>248.2911806484865</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>166.5901478022483</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>135.0033547520754</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.27267978090128</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.74238375877721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>158.2081142387128</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>21.90286287505396</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>212.5626585298416</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>77.93612009725524</v>
+        <v>130.5513683573771</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>89.43437620021299</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,19 +2287,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>177.1006680594875</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>65.99480013030514</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>212.5602966632234</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149755</v>
+        <v>171.0385136149754</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316661</v>
+        <v>158.4533545316659</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512506</v>
+        <v>139.8220064512504</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796074</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559695</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253071</v>
+        <v>119.2583832054491</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792621</v>
+        <v>131.5012462792619</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160376</v>
+        <v>72.47236975160359</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346828</v>
+        <v>172.2328194346827</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.6119837603263</v>
       </c>
       <c r="U28" t="n">
-        <v>174.2626255271705</v>
+        <v>277.3910078222822</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568662</v>
+        <v>243.3441767568661</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696293</v>
+        <v>277.729531769629</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220754</v>
+        <v>216.9161888220752</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.791186785133</v>
+        <v>209.7911867851329</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541857</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>2342.888901953459</v>
       </c>
       <c r="C2" t="n">
-        <v>909.3697179459625</v>
+        <v>1973.926385013048</v>
       </c>
       <c r="D2" t="n">
-        <v>909.3697179459625</v>
+        <v>1615.660686406297</v>
       </c>
       <c r="E2" t="n">
-        <v>523.5814653477182</v>
+        <v>1229.872433808053</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>818.8865290184453</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2729.488742017581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064752</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080136</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>631.7841389438283</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>631.7841389438283</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>481.6674995314926</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>333.7544059490995</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>186.864458451189</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
@@ -4495,7 +4495,7 @@
         <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N4" t="n">
         <v>671.0968864886954</v>
@@ -4504,34 +4504,34 @@
         <v>809.0152357068852</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596437</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181848</v>
       </c>
       <c r="U4" t="n">
-        <v>410.0175235133542</v>
+        <v>631.7841389438283</v>
       </c>
       <c r="V4" t="n">
-        <v>410.0175235133542</v>
+        <v>631.7841389438283</v>
       </c>
       <c r="W4" t="n">
-        <v>410.0175235133542</v>
+        <v>631.7841389438283</v>
       </c>
       <c r="X4" t="n">
-        <v>410.0175235133542</v>
+        <v>631.7841389438283</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.2249443698241</v>
+        <v>631.7841389438283</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2675.869307912963</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W5" t="n">
-        <v>2675.869307912963</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X5" t="n">
-        <v>2675.869307912963</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y5" t="n">
-        <v>2285.729975937151</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.1280466398576</v>
+        <v>449.8213709509845</v>
       </c>
       <c r="C7" t="n">
-        <v>382.1280466398576</v>
+        <v>280.8851880230776</v>
       </c>
       <c r="D7" t="n">
-        <v>382.1280466398576</v>
+        <v>280.8851880230776</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>280.8851880230776</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>699.120390387711</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>699.120390387711</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y7" t="n">
-        <v>478.3278112441809</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1156.082344952775</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>770.2940923545309</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>359.3081875649233</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,10 +4814,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3047.042276568338</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2694.273621298224</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2320.807863037144</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4881,16 +4881,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4902,31 +4902,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>381.1049005553748</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877109</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V10" t="n">
-        <v>562.7533653856145</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W10" t="n">
-        <v>562.7533653856145</v>
+        <v>623.9437151289015</v>
       </c>
       <c r="X10" t="n">
-        <v>562.7533653856145</v>
+        <v>623.9437151289015</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.7533653856145</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.5507239167108</v>
+        <v>733.4550657171304</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888043</v>
+        <v>564.5188827892235</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>564.5188827892235</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>416.6057892068304</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>416.6057892068304</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>249.4096899217104</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>107.6978587639084</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2220.111203833967</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2000.509738856908</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1711.434512201106</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.750023995219</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1167.332853958258</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>939.3433030602409</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>718.5507239167108</v>
+        <v>915.1035305473702</v>
       </c>
     </row>
     <row r="14">
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.21291626627</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820877</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532262</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121646</v>
+        <v>781.8178837532262</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121646</v>
+        <v>631.7012443408904</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121646</v>
+        <v>631.7012443408904</v>
       </c>
       <c r="F16" t="n">
-        <v>198.0274703142542</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>198.0274703142542</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,7 +5458,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834659</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5604,16 +5604,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>768.5380889459584</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>599.6019060180515</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>449.4852666057158</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>950.1865537761981</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154064</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038349</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179775</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154064</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6078,16 +6078,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>1018.438627038651</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>849.5024441107446</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>699.3858046984088</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>551.4727111160157</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1648.869221910438</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1420.879671012421</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1200.087091868891</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1036.491134032483</v>
+        <v>721.6018753906291</v>
       </c>
       <c r="C28" t="n">
-        <v>876.4372405661539</v>
+        <v>561.5479819242998</v>
       </c>
       <c r="D28" t="n">
-        <v>735.2028906153957</v>
+        <v>420.3136319735418</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1720864945802</v>
+        <v>420.3136319735418</v>
       </c>
       <c r="F28" t="n">
-        <v>458.1644284582474</v>
+        <v>420.3136319735418</v>
       </c>
       <c r="G28" t="n">
-        <v>299.8506186347051</v>
+        <v>299.8506186347047</v>
       </c>
       <c r="H28" t="n">
-        <v>167.0210769384807</v>
+        <v>167.0210769384805</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795879</v>
+        <v>182.758213379588</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064184</v>
+        <v>453.1530078064189</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836506</v>
+        <v>852.2571338836514</v>
       </c>
       <c r="M28" t="n">
-        <v>1282.972368515977</v>
+        <v>1282.972368515978</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077278</v>
+        <v>1709.087772077279</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687555</v>
+        <v>2087.322584687556</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162406</v>
+        <v>2388.703572162407</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790598</v>
+        <v>2516.607338790599</v>
       </c>
       <c r="R28" t="n">
-        <v>2516.607338790598</v>
+        <v>2516.607338790599</v>
       </c>
       <c r="S28" t="n">
-        <v>2342.63479390708</v>
+        <v>2342.634793907081</v>
       </c>
       <c r="T28" t="n">
-        <v>2342.63479390708</v>
+        <v>2131.915618391599</v>
       </c>
       <c r="U28" t="n">
-        <v>2166.611939839231</v>
+        <v>1851.722681197375</v>
       </c>
       <c r="V28" t="n">
-        <v>1920.809741094921</v>
+        <v>1605.920482453066</v>
       </c>
       <c r="W28" t="n">
-        <v>1640.274860519538</v>
+        <v>1325.385601877683</v>
       </c>
       <c r="X28" t="n">
-        <v>1421.167599083098</v>
+        <v>1106.278340441243</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.257309401145</v>
+        <v>894.368050759291</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6443,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6464,16 +6464,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6549,19 +6549,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580128</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345491</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,16 +6786,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,22 +7014,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.342122433612</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,22 +7096,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,22 +7120,22 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7166,7 +7166,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,7 +7485,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150019</v>
@@ -7792,13 +7792,13 @@
         <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,10 +7846,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>352.9961612166813</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.255751353300838</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.34628052367304</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>46.87698966021276</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -22756,7 +22756,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>67.52345255978832</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.81817176293181</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.3918499711699</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>13.14699685919553</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>68.49784254931393</v>
+        <v>15.8825942891921</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>77.81244489841484</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,19 +24175,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>109.4223302771035</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>79.42624789262611</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>73.62417772602078</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796072</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6275814559693</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>37.47228851985807</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315992</v>
+        <v>57.58178014315975</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603265</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.1283822951119</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82260.24434218735</v>
+        <v>82260.24434218732</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,13 +26323,13 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
@@ -26338,22 +26338,22 @@
         <v>101522.2547944397</v>
       </c>
       <c r="K2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="L2" t="n">
         <v>102630.2212330354</v>
-      </c>
-      <c r="L2" t="n">
-        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508468</v>
+        <v>224565.975650847</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006238</v>
+        <v>12392.94474006226</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569427</v>
+        <v>7034.773253569536</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006233</v>
+        <v>12392.94474006226</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>584.646989006123</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687975</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687967</v>
-      </c>
       <c r="J4" t="n">
-        <v>18330.12873445302</v>
+        <v>18330.12873445306</v>
       </c>
       <c r="K4" t="n">
-        <v>23427.49926997316</v>
+        <v>23427.49926997317</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997315</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997316</v>
+        <v>23427.49926997314</v>
       </c>
       <c r="N4" t="n">
+        <v>23427.4992699732</v>
+      </c>
+      <c r="O4" t="n">
         <v>23427.49926997314</v>
       </c>
-      <c r="O4" t="n">
-        <v>23427.49926997313</v>
-      </c>
       <c r="P4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997314</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1355003.088935804</v>
+        <v>-1355410.488473621</v>
       </c>
       <c r="C6" t="n">
-        <v>-98900.46343241043</v>
+        <v>-98900.46343241044</v>
       </c>
       <c r="D6" t="n">
-        <v>-98900.46343241046</v>
+        <v>-98900.46343241047</v>
       </c>
       <c r="E6" t="n">
-        <v>-341078.3066768914</v>
+        <v>-341113.0446023269</v>
       </c>
       <c r="F6" t="n">
-        <v>-15665.84486953604</v>
+        <v>-15700.58279497175</v>
       </c>
       <c r="G6" t="n">
-        <v>-15665.84486953598</v>
+        <v>-15700.58279497168</v>
       </c>
       <c r="H6" t="n">
-        <v>-15665.84486953607</v>
+        <v>-15700.58279497169</v>
       </c>
       <c r="I6" t="n">
-        <v>-15665.84486953598</v>
+        <v>-15700.58279497171</v>
       </c>
       <c r="J6" t="n">
-        <v>-243235.6373555852</v>
+        <v>-243257.7966843574</v>
       </c>
       <c r="K6" t="n">
-        <v>-36354.3386309155</v>
+        <v>-36354.33863091536</v>
       </c>
       <c r="L6" t="n">
         <v>-23961.3938908531</v>
       </c>
       <c r="M6" t="n">
-        <v>-109016.421826365</v>
+        <v>-109016.4218263649</v>
       </c>
       <c r="N6" t="n">
-        <v>-23961.3938908531</v>
+        <v>-23961.39389085313</v>
       </c>
       <c r="O6" t="n">
-        <v>-30996.16714442252</v>
+        <v>-30996.16714442264</v>
       </c>
       <c r="P6" t="n">
-        <v>-36354.33863091543</v>
+        <v>-36354.33863091534</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507797</v>
+        <v>15.49118092507783</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961783</v>
+        <v>8.79346656696192</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507792</v>
+        <v>15.49118092507783</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507797</v>
+        <v>15.49118092507783</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>248.6140137975866</v>
+        <v>108.8774149194512</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.59421322365722</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>29.54412755778412</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>162.6305450049669</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>161.1621106678866</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>117.1342885717526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>271.2503185556897</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.816298607236514e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961765</v>
+        <v>8.793466566961941</v>
       </c>
     </row>
     <row r="29">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3420541567482</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>549.9198891312099</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32716,7 +32716,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32798,19 +32798,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2352659288688</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N27" t="n">
-        <v>704.1404939038099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,13 +33746,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>351.6082511035024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>616.375287159485</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O42" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>567.7870775946151</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>97.00034207341486</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572999023</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>407.3236446867654</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36446,19 +36446,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>68.26085851453861</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N27" t="n">
-        <v>572.7987818204766</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991513</v>
+        <v>89.8399498299153</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765967</v>
+        <v>273.1260549765969</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860931</v>
+        <v>403.1354808860934</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680069</v>
+        <v>435.0658935680071</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568692</v>
+        <v>430.4195995568694</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730072</v>
+        <v>382.0553662730074</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735867</v>
+        <v>304.4252398735869</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668601</v>
+        <v>129.1957238668603</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,10 +36999,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37236,10 +37236,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,13 +37394,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>217.6338436891722</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>473.7790427150405</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O42" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>425.1908331501707</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986646</v>
